--- a/SN_output.xlsx
+++ b/SN_output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,6 +508,11 @@
           <t>days_delta</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Cleaned description</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -566,6 +571,11 @@
       <c r="N2" t="n">
         <v>168.3589392650703</v>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Airport Ops AODB data extract DEN BI datawarehouse</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -624,6 +634,11 @@
       <c r="N3" t="n">
         <v>114.8512357603905</v>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>need Snow data Crisis Management Source moved Data Warehouse</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -682,6 +697,11 @@
       <c r="N4" t="n">
         <v>147.7936167284456</v>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Create new data fields Maintenance Source Asset Data warehouse</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -740,6 +760,11 @@
       <c r="N5" t="n">
         <v>181.9305838264732</v>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Review update DW due 'decustomizing' Maintenance Source fields / Maintenance Source reimplementation</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -798,6 +823,11 @@
       <c r="N6" t="n">
         <v>166.7863308903384</v>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>BI reports Finance Source cash posting</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -856,6 +886,11 @@
       <c r="N7" t="n">
         <v>102.7498863312802</v>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Microsoft Purview POC - Data Quality</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -914,6 +949,11 @@
       <c r="N8" t="n">
         <v>47.79213737749416</v>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Request Reports People Counter data</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -972,6 +1012,11 @@
       <c r="N9" t="n">
         <v>40.85282711189638</v>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Data Analytics team migrate Secret Server</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1030,6 +1075,11 @@
       <c r="N10" t="n">
         <v>74.69510841731115</v>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Clean tabular models</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1088,6 +1138,11 @@
       <c r="N11" t="n">
         <v>131.9250305296527</v>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Level 6 West security checkpoint - update dashboards</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1146,6 +1201,11 @@
       <c r="N12" t="n">
         <v>5.457591979908402</v>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Need little help creating measure power bi report</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1204,6 +1264,11 @@
       <c r="N13" t="n">
         <v>147.5586828611419</v>
       </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Migrate Cab data new Azure tenant</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1262,6 +1327,11 @@
       <c r="N14" t="n">
         <v>38.53315762349314</v>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Change BI FIDS Rideshare data source new Azure Tenant.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1318,6 +1388,11 @@
       <c r="N15" t="n">
         <v>64.45039054041577</v>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Rideshare DB Data Access</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1376,6 +1451,11 @@
       <c r="N16" t="n">
         <v>-28.01352674306695</v>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Add Maintenance Source Service Requests data warehouse</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1438,6 +1518,11 @@
       <c r="N17" t="n">
         <v>95.17975659991325</v>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Looking report onboarding offboarding activity</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1500,6 +1585,11 @@
       <c r="N18" t="n">
         <v>176.9408864122595</v>
       </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Updates Screening data</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1562,6 +1652,11 @@
       <c r="N19" t="n">
         <v>152.0937922298629</v>
       </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Replace "slicer" / lookup conveyance list conveyance assets lookup table based building bim code.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1624,6 +1719,11 @@
       <c r="N20" t="n">
         <v>96.62063784842579</v>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Capture concessionaire transaction data concessions warehouse.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1686,6 +1786,11 @@
       <c r="N21" t="n">
         <v>118.889697857341</v>
       </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>auditor's office request - Concessions Report</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1748,6 +1853,11 @@
       <c r="N22" t="n">
         <v>11.20471453450407</v>
       </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Compensation rates populating Concessions reports.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1810,6 +1920,11 @@
       <c r="N23" t="n">
         <v>25.36028823389201</v>
       </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Updates Assessor's report</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1872,6 +1987,11 @@
       <c r="N24" t="n">
         <v>57.00401055959416</v>
       </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Parking Data coming online Contractor</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1934,6 +2054,11 @@
       <c r="N25" t="n">
         <v>46.29976121359627</v>
       </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Parking - Rideshare 10 15 min granular level detail</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1996,6 +2121,11 @@
       <c r="N26" t="n">
         <v>55.52246949915327</v>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Parking - Add Forecasting capability Parking Transportation dashboards</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2058,6 +2188,11 @@
       <c r="N27" t="n">
         <v>63.22600758208813</v>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Parking - Combine Revenue Transaction lot one</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2120,6 +2255,11 @@
       <c r="N28" t="n">
         <v>166.3976508786422</v>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Fix Parking Duration Minutes Duration tab</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2182,6 +2322,11 @@
       <c r="N29" t="n">
         <v>122.3602895002943</v>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Shuttle Reports based data vendor</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2244,6 +2389,11 @@
       <c r="N30" t="n">
         <v>56.13316938381303</v>
       </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Add TSA forecast data Data Warehouse.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2306,6 +2456,11 @@
       <c r="N31" t="n">
         <v>76.74906024753236</v>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Create reports Commercial Transportation.</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2368,6 +2523,11 @@
       <c r="N32" t="n">
         <v>127.3053218029072</v>
       </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Vendor EBI data integration</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2430,6 +2590,11 @@
       <c r="N33" t="n">
         <v>-66.5392415686258</v>
       </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Pull regulation data submissions database GIS team access data</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2492,6 +2657,11 @@
       <c r="N34" t="n">
         <v>92.98108923108087</v>
       </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Migrate Pena traffic data source prod</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2554,6 +2724,11 @@
       <c r="N35" t="n">
         <v>46.2394444836756</v>
       </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Update Snow Reporting dashboard import process.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2616,6 +2791,11 @@
       <c r="N36" t="n">
         <v>143.2439164421017</v>
       </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Updates OTP flight ops</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2678,6 +2858,11 @@
       <c r="N37" t="n">
         <v>61.34236725704504</v>
       </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Flight Schedule Data Enhancement</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2740,6 +2925,11 @@
       <c r="N38" t="n">
         <v>49.83607565572216</v>
       </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Snow Deactivation data model source Power BI DEN Snow Dashboard</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2802,6 +2992,11 @@
       <c r="N39" t="n">
         <v>144.6485813583103</v>
       </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Business Intelligence ServiceNow database's survey data matching AskIT report.</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2864,6 +3059,11 @@
       <c r="N40" t="n">
         <v>122.5638789871696</v>
       </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Add Procurement software data data warehouse</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2926,6 +3126,11 @@
       <c r="N41" t="n">
         <v>198.0262393884823</v>
       </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Updates Contract Management</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2988,6 +3193,11 @@
       <c r="N42" t="n">
         <v>58.04349661292205</v>
       </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Power BI Calculation formula</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3050,6 +3260,11 @@
       <c r="N43" t="n">
         <v>73.31562351734033</v>
       </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Add first name, last name, display name linked reported service request table service request model</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3112,6 +3327,11 @@
       <c r="N44" t="n">
         <v>68.1199071091828</v>
       </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Update Work Order Tabular Model</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3174,6 +3394,11 @@
       <c r="N45" t="n">
         <v>-5.289744051412917</v>
       </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Update Airline stats SSRS report ADA Compliant.</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3236,6 +3461,11 @@
       <c r="N46" t="n">
         <v>28.54903340457118</v>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>PowerBI dashboard Airport Planning</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3298,6 +3528,11 @@
       <c r="N47" t="n">
         <v>129.7449429964672</v>
       </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Service Desk dashboards</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3360,6 +3595,11 @@
       <c r="N48" t="n">
         <v>31.97459289785935</v>
       </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>FCR (fist contact resolution) Service report power BI dashboard.</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3422,6 +3662,11 @@
       <c r="N49" t="n">
         <v>117.3027759964276</v>
       </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Updates Insurance Surety letters Concessions</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3484,6 +3729,11 @@
       <c r="N50" t="n">
         <v>148.1629166840855</v>
       </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Juan's BT Dashboard - update Service Requests</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3546,6 +3796,11 @@
       <c r="N51" t="n">
         <v>122.9438509376216</v>
       </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Add BT project hierarchy SharePoint list CIP Power BI report.</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3608,6 +3863,11 @@
       <c r="N52" t="n">
         <v>116.1844630194906</v>
       </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Controls project</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3670,6 +3930,11 @@
       <c r="N53" t="n">
         <v>156.3578036590267</v>
       </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Automate Passenger Capacity Data Retrieval</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3732,6 +3997,11 @@
       <c r="N54" t="n">
         <v>145.6262234460593</v>
       </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>PowerBI query Finance Source</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3794,6 +4064,11 @@
       <c r="N55" t="n">
         <v>36.26851968257091</v>
       </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Updates Concession Incentive Program</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3856,6 +4131,11 @@
       <c r="N56" t="n">
         <v>107.1708081847007</v>
       </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Concessions gross sales report - ADA compliant</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3918,6 +4198,11 @@
       <c r="N57" t="n">
         <v>139.2718769864472</v>
       </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>concessions compensation gross sales 2005 current</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3980,6 +4265,11 @@
       <c r="N58" t="n">
         <v>126.8250839091449</v>
       </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Updates concessions gross sales</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4042,6 +4332,11 @@
       <c r="N59" t="n">
         <v>-14.02313167856621</v>
       </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Sales data - pulling Finance Source</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4104,6 +4399,11 @@
       <c r="N60" t="n">
         <v>75.07070150473982</v>
       </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Convert Crystal report SSRS</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4166,6 +4466,11 @@
       <c r="N61" t="n">
         <v>3.539453830864268</v>
       </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Convert plumbing crystal reports SSRS</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4228,6 +4533,11 @@
       <c r="N62" t="n">
         <v>90.17549718129436</v>
       </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>All-Active Contracts Report (Future State)</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4290,6 +4600,11 @@
       <c r="N63" t="n">
         <v>186.729764946108</v>
       </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Parking - Lost Found Dashboard</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4352,6 +4667,11 @@
       <c r="N64" t="n">
         <v>100.8779815488868</v>
       </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Service Request Data Warehouse, need "SENT TO" field created</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4414,6 +4734,11 @@
       <c r="N65" t="n">
         <v>180.5540924357767</v>
       </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Updates Monitors Dashboard App</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4476,6 +4801,11 @@
       <c r="N66" t="n">
         <v>-37.46970685423346</v>
       </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Baggage Handling System data DEN Data Warehouse</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4538,6 +4868,11 @@
       <c r="N67" t="n">
         <v>79.71913655946754</v>
       </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Updated Snow Dashboard Contract Companies</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4600,6 +4935,11 @@
       <c r="N68" t="n">
         <v>90.46818121288146</v>
       </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>New measure train system</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4662,6 +5002,11 @@
       <c r="N69" t="n">
         <v>-21.04124956095491</v>
       </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>BI/Analytics - Data refresh solution replace use Personal Gateway</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4724,6 +5069,11 @@
       <c r="N70" t="n">
         <v>46.72505468173283</v>
       </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>BI Team - Integration hourly TSA throughput data enterprise data warehouse via Teams</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4786,6 +5136,11 @@
       <c r="N71" t="n">
         <v>84.20735273449223</v>
       </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>update POT usage report powerbi detail info</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4848,6 +5203,11 @@
       <c r="N72" t="n">
         <v>95.7205320818572</v>
       </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Add another data field Power BI dashboard snow metrics Maintenance</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4910,6 +5270,11 @@
       <c r="N73" t="n">
         <v>87.07912632445216</v>
       </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Additional measures/changes FIDS FlightDetails model</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4972,6 +5337,11 @@
       <c r="N74" t="n">
         <v>121.1093606226926</v>
       </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Flight Operations model refreshing 0800</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5034,6 +5404,11 @@
       <c r="N75" t="n">
         <v>8.071130764644272</v>
       </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>New Average Measure airport alarms</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5096,6 +5471,11 @@
       <c r="N76" t="n">
         <v>105.1438675316601</v>
       </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Removal duplicate Device ID Alarm data</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5158,6 +5538,11 @@
       <c r="N77" t="n">
         <v>193.8438494378015</v>
       </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Janitor Scan Data Data Warehouse</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5220,6 +5605,11 @@
       <c r="N78" t="n">
         <v>27.02550160586695</v>
       </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>New data model using FIDS/BIDS data</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5282,6 +5672,11 @@
       <c r="N79" t="n">
         <v>106.4422363522788</v>
       </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Snow Dashboard: Improvment reqest materials reporting</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5344,6 +5739,11 @@
       <c r="N80" t="n">
         <v>29.50888128348253</v>
       </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Updates Workday Learning data source</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5406,6 +5806,11 @@
       <c r="N81" t="n">
         <v>67.94307719836544</v>
       </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Crisis Management Source Workflow API Call Proof Concept/Documentation</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5468,6 +5873,11 @@
       <c r="N82" t="n">
         <v>174.4403093897684</v>
       </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Update SSRS Business Directory Report ADA Complaint.</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5530,6 +5940,11 @@
       <c r="N83" t="n">
         <v>10.42092846166157</v>
       </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Procurement Opportunities Flydenver API Gateway</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5592,6 +6007,11 @@
       <c r="N84" t="n">
         <v>84.48026633108312</v>
       </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Updates Workday data</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5654,6 +6074,11 @@
       <c r="N85" t="n">
         <v>181.2000566443704</v>
       </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Embed Commerce hub Power BI report intranet flydenver.com</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5716,6 +6141,11 @@
       <c r="N86" t="n">
         <v>125.5195391140414</v>
       </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Self Bagdrop Dashboard Enhancement</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5778,6 +6208,11 @@
       <c r="N87" t="n">
         <v>2.665779691404599</v>
       </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Create platform people counter report</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5840,6 +6275,11 @@
       <c r="N88" t="n">
         <v>-10.78567514385863</v>
       </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Create new Reporting aggregated Security Wait Times</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5902,6 +6342,11 @@
       <c r="N89" t="n">
         <v>48.13186060585354</v>
       </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Updates Passenger Cargo Analysis Report.</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5964,6 +6409,11 @@
       <c r="N90" t="n">
         <v>37.47224989644162</v>
       </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Prep TSA throughput file Power BI report.</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6026,6 +6476,11 @@
       <c r="N91" t="n">
         <v>57.83665354400376</v>
       </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Passenger Capacity Analysis.</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6088,6 +6543,11 @@
       <c r="N92" t="n">
         <v>64.89003053458974</v>
       </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Products data cleanup</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6150,6 +6610,11 @@
       <c r="N93" t="n">
         <v>-60.04057833470304</v>
       </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Alink data Power BI</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6212,6 +6677,11 @@
       <c r="N94" t="n">
         <v>104.3339423071906</v>
       </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Load Screening data Q3 data</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6274,6 +6744,11 @@
       <c r="N95" t="n">
         <v>114.9403792037417</v>
       </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Connectors Migration</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6336,6 +6811,11 @@
       <c r="N96" t="n">
         <v>59.81694554545398</v>
       </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Upgrade latest version - Connector 1</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6398,6 +6878,11 @@
       <c r="N97" t="n">
         <v>155.4470542613981</v>
       </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>MS Synapse POC</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6460,6 +6945,11 @@
       <c r="N98" t="n">
         <v>153.7954718844083</v>
       </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Follow tasks MS assessment clinic</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6522,6 +7012,11 @@
       <c r="N99" t="n">
         <v>25.70034610990757</v>
       </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Budget form BI</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6584,6 +7079,11 @@
       <c r="N100" t="n">
         <v>58.7121783268441</v>
       </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Add field Workday Employee Extract file Database</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6646,6 +7146,11 @@
       <c r="N101" t="n">
         <v>107.0855396913864</v>
       </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>AskIT/ServiceNow fields imported Data Warehouse.</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6708,6 +7213,11 @@
       <c r="N102" t="n">
         <v>83.46134896062125</v>
       </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>ADA Monthly Service Reports Automation</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6770,6 +7280,11 @@
       <c r="N103" t="n">
         <v>35.41751811981369</v>
       </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Maintenance Source rehosting testing</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6832,6 +7347,11 @@
       <c r="N104" t="n">
         <v>93.72695032816981</v>
       </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Pull Future Flight Schedules - Data Data warehouse reporting.</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6894,6 +7414,11 @@
       <c r="N105" t="n">
         <v>152.4124122725149</v>
       </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Updates RSJ dashboard</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6956,6 +7481,11 @@
       <c r="N106" t="n">
         <v>67.48285426353299</v>
       </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Updates Airline Stats</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7018,6 +7548,11 @@
       <c r="N107" t="n">
         <v>72.62385659778478</v>
       </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Updates Airline Dashboard</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7080,6 +7615,11 @@
       <c r="N108" t="n">
         <v>74.12548620349503</v>
       </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Add Search Fuel form process</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7142,6 +7682,11 @@
       <c r="N109" t="n">
         <v>140.6476117910419</v>
       </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Light Duty Truck PM Report</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7204,6 +7749,11 @@
       <c r="N110" t="n">
         <v>48.09016294887264</v>
       </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Create Monthly snapshot MP analytics report (Power BI)</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7266,6 +7816,11 @@
       <c r="N111" t="n">
         <v>37.93377302821067</v>
       </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Power BI dashboard Network devices age</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7328,6 +7883,11 @@
       <c r="N112" t="n">
         <v>85.63571756442637</v>
       </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Materials Management Fleet Maintenance need assistance making power BI rep</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7390,6 +7950,11 @@
       <c r="N113" t="n">
         <v>147.6544396716334</v>
       </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Power BI Help Request (TASK0182200)</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7452,6 +8017,11 @@
       <c r="N114" t="n">
         <v>143.3969376449798</v>
       </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Po PR information table info Maintenance Source power BI</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7514,6 +8084,11 @@
       <c r="N115" t="n">
         <v>118.517103359977</v>
       </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>DEN Commercial Dashboard 2.0</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7576,6 +8151,11 @@
       <c r="N116" t="n">
         <v>76.35019157843348</v>
       </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Expanding data passed us People Counters via API</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7638,6 +8218,11 @@
       <c r="N117" t="n">
         <v>81.98012423462151</v>
       </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Pull data vendor data warehouse enable regular reporting Parking Lot Capacity</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7700,6 +8285,11 @@
       <c r="N118" t="n">
         <v>89.34902343799054</v>
       </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>need help creating DPD Shifts (Details) CAD Dataset</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7762,6 +8352,11 @@
       <c r="N119" t="n">
         <v>121.0933437444487</v>
       </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>OPs Security Screening Occupancy Reporting</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7824,6 +8419,11 @@
       <c r="N120" t="n">
         <v>158.7089377279694</v>
       </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Comms Center Dashboard</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7886,6 +8486,11 @@
       <c r="N121" t="n">
         <v>128.9827058516418</v>
       </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Update Maintenance database</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7948,6 +8553,11 @@
       <c r="N122" t="n">
         <v>12.26823023957131</v>
       </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Connect external weather dataset Snow Dashboards probably via API help team better tell story runway downtime.</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8009,6 +8619,11 @@
       </c>
       <c r="N123" t="n">
         <v>1.758819338421822</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Non-Production Network Production/Inventory Values Cost Estimation sheets need adjusting/correcting (use attached docs)</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/SN_output.xlsx
+++ b/SN_output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O123"/>
+  <dimension ref="A1:P123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +513,11 @@
           <t>Cleaned description</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Estimated Start Date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -576,6 +581,7 @@
           <t>Airport Ops AODB data extract DEN BI datawarehouse</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -639,6 +645,7 @@
           <t>need Snow data Crisis Management Source moved Data Warehouse</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -702,6 +709,9 @@
           <t>Create new data fields Maintenance Source Asset Data warehouse</t>
         </is>
       </c>
+      <c r="P4" s="2" t="n">
+        <v>45614.3841370088</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -765,6 +775,7 @@
           <t>Review update DW due 'decustomizing' Maintenance Source fields / Maintenance Source reimplementation</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -828,6 +839,7 @@
           <t>BI reports Finance Source cash posting</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -891,6 +903,7 @@
           <t>Microsoft Purview POC - Data Quality</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -954,6 +967,9 @@
           <t>Request Reports People Counter data</t>
         </is>
       </c>
+      <c r="P8" s="2" t="n">
+        <v>45626.3841370088</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1017,6 +1033,7 @@
           <t>Data Analytics team migrate Secret Server</t>
         </is>
       </c>
+      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1080,6 +1097,7 @@
           <t>Clean tabular models</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1143,6 +1161,7 @@
           <t>Level 6 West security checkpoint - update dashboards</t>
         </is>
       </c>
+      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1206,6 +1225,7 @@
           <t>Need little help creating measure power bi report</t>
         </is>
       </c>
+      <c r="P12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1269,6 +1289,7 @@
           <t>Migrate Cab data new Azure tenant</t>
         </is>
       </c>
+      <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1332,6 +1353,7 @@
           <t>Change BI FIDS Rideshare data source new Azure Tenant.</t>
         </is>
       </c>
+      <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1393,6 +1415,7 @@
           <t>Rideshare DB Data Access</t>
         </is>
       </c>
+      <c r="P15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1456,6 +1479,7 @@
           <t>Add Maintenance Source Service Requests data warehouse</t>
         </is>
       </c>
+      <c r="P16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1523,6 +1547,7 @@
           <t>Looking report onboarding offboarding activity</t>
         </is>
       </c>
+      <c r="P17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1590,6 +1615,7 @@
           <t>Updates Screening data</t>
         </is>
       </c>
+      <c r="P18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1657,6 +1683,7 @@
           <t>Replace "slicer" / lookup conveyance list conveyance assets lookup table based building bim code.</t>
         </is>
       </c>
+      <c r="P19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1724,6 +1751,7 @@
           <t>Capture concessionaire transaction data concessions warehouse.</t>
         </is>
       </c>
+      <c r="P20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1791,6 +1819,7 @@
           <t>auditor's office request - Concessions Report</t>
         </is>
       </c>
+      <c r="P21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1858,6 +1887,7 @@
           <t>Compensation rates populating Concessions reports.</t>
         </is>
       </c>
+      <c r="P22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1925,6 +1955,7 @@
           <t>Updates Assessor's report</t>
         </is>
       </c>
+      <c r="P23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1992,6 +2023,7 @@
           <t>Parking Data coming online Contractor</t>
         </is>
       </c>
+      <c r="P24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2059,6 +2091,9 @@
           <t>Parking - Rideshare 10 15 min granular level detail</t>
         </is>
       </c>
+      <c r="P25" s="2" t="n">
+        <v>45627.3841370088</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2126,6 +2161,9 @@
           <t>Parking - Add Forecasting capability Parking Transportation dashboards</t>
         </is>
       </c>
+      <c r="P26" s="2" t="n">
+        <v>45625.3841370088</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2193,6 +2231,7 @@
           <t>Parking - Combine Revenue Transaction lot one</t>
         </is>
       </c>
+      <c r="P27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2260,6 +2299,7 @@
           <t>Fix Parking Duration Minutes Duration tab</t>
         </is>
       </c>
+      <c r="P28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2327,6 +2367,9 @@
           <t>Shuttle Reports based data vendor</t>
         </is>
       </c>
+      <c r="P29" s="2" t="n">
+        <v>45625.3841370088</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2394,6 +2437,7 @@
           <t>Add TSA forecast data Data Warehouse.</t>
         </is>
       </c>
+      <c r="P30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2461,6 +2505,7 @@
           <t>Create reports Commercial Transportation.</t>
         </is>
       </c>
+      <c r="P31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2528,6 +2573,7 @@
           <t>Vendor EBI data integration</t>
         </is>
       </c>
+      <c r="P32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2595,6 +2641,9 @@
           <t>Pull regulation data submissions database GIS team access data</t>
         </is>
       </c>
+      <c r="P33" s="2" t="n">
+        <v>45621.3841370088</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2662,6 +2711,7 @@
           <t>Migrate Pena traffic data source prod</t>
         </is>
       </c>
+      <c r="P34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2729,6 +2779,7 @@
           <t>Update Snow Reporting dashboard import process.</t>
         </is>
       </c>
+      <c r="P35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2796,6 +2847,7 @@
           <t>Updates OTP flight ops</t>
         </is>
       </c>
+      <c r="P36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2863,6 +2915,7 @@
           <t>Flight Schedule Data Enhancement</t>
         </is>
       </c>
+      <c r="P37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2930,6 +2983,9 @@
           <t>Snow Deactivation data model source Power BI DEN Snow Dashboard</t>
         </is>
       </c>
+      <c r="P38" s="2" t="n">
+        <v>45626.3841370088</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2997,6 +3053,7 @@
           <t>Business Intelligence ServiceNow database's survey data matching AskIT report.</t>
         </is>
       </c>
+      <c r="P39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3064,6 +3121,7 @@
           <t>Add Procurement software data data warehouse</t>
         </is>
       </c>
+      <c r="P40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3131,6 +3189,7 @@
           <t>Updates Contract Management</t>
         </is>
       </c>
+      <c r="P41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3198,6 +3257,7 @@
           <t>Power BI Calculation formula</t>
         </is>
       </c>
+      <c r="P42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3265,6 +3325,7 @@
           <t>Add first name, last name, display name linked reported service request table service request model</t>
         </is>
       </c>
+      <c r="P43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3332,6 +3393,7 @@
           <t>Update Work Order Tabular Model</t>
         </is>
       </c>
+      <c r="P44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3399,6 +3461,7 @@
           <t>Update Airline stats SSRS report ADA Compliant.</t>
         </is>
       </c>
+      <c r="P45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3466,6 +3529,7 @@
           <t>PowerBI dashboard Airport Planning</t>
         </is>
       </c>
+      <c r="P46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3533,6 +3597,7 @@
           <t>Service Desk dashboards</t>
         </is>
       </c>
+      <c r="P47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3600,6 +3665,7 @@
           <t>FCR (fist contact resolution) Service report power BI dashboard.</t>
         </is>
       </c>
+      <c r="P48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3667,6 +3733,7 @@
           <t>Updates Insurance Surety letters Concessions</t>
         </is>
       </c>
+      <c r="P49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3734,6 +3801,7 @@
           <t>Juan's BT Dashboard - update Service Requests</t>
         </is>
       </c>
+      <c r="P50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3801,6 +3869,7 @@
           <t>Add BT project hierarchy SharePoint list CIP Power BI report.</t>
         </is>
       </c>
+      <c r="P51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3868,6 +3937,7 @@
           <t>Controls project</t>
         </is>
       </c>
+      <c r="P52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3935,6 +4005,7 @@
           <t>Automate Passenger Capacity Data Retrieval</t>
         </is>
       </c>
+      <c r="P53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4002,6 +4073,9 @@
           <t>PowerBI query Finance Source</t>
         </is>
       </c>
+      <c r="P54" s="2" t="n">
+        <v>45620.3841370088</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4069,6 +4143,9 @@
           <t>Updates Concession Incentive Program</t>
         </is>
       </c>
+      <c r="P55" s="2" t="n">
+        <v>45618.3841370088</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4136,6 +4213,7 @@
           <t>Concessions gross sales report - ADA compliant</t>
         </is>
       </c>
+      <c r="P56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4203,6 +4281,7 @@
           <t>concessions compensation gross sales 2005 current</t>
         </is>
       </c>
+      <c r="P57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4270,6 +4349,7 @@
           <t>Updates concessions gross sales</t>
         </is>
       </c>
+      <c r="P58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4337,6 +4417,7 @@
           <t>Sales data - pulling Finance Source</t>
         </is>
       </c>
+      <c r="P59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4404,6 +4485,7 @@
           <t>Convert Crystal report SSRS</t>
         </is>
       </c>
+      <c r="P60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4471,6 +4553,7 @@
           <t>Convert plumbing crystal reports SSRS</t>
         </is>
       </c>
+      <c r="P61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4538,6 +4621,7 @@
           <t>All-Active Contracts Report (Future State)</t>
         </is>
       </c>
+      <c r="P62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4605,6 +4689,9 @@
           <t>Parking - Lost Found Dashboard</t>
         </is>
       </c>
+      <c r="P63" s="2" t="n">
+        <v>45617.3841370088</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4672,6 +4759,9 @@
           <t>Service Request Data Warehouse, need "SENT TO" field created</t>
         </is>
       </c>
+      <c r="P64" s="2" t="n">
+        <v>45613.3841370088</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4739,6 +4829,7 @@
           <t>Updates Monitors Dashboard App</t>
         </is>
       </c>
+      <c r="P65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4806,6 +4897,7 @@
           <t>Baggage Handling System data DEN Data Warehouse</t>
         </is>
       </c>
+      <c r="P66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4873,6 +4965,7 @@
           <t>Updated Snow Dashboard Contract Companies</t>
         </is>
       </c>
+      <c r="P67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4940,6 +5033,9 @@
           <t>New measure train system</t>
         </is>
       </c>
+      <c r="P68" s="2" t="n">
+        <v>45620.3841370088</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5007,6 +5103,7 @@
           <t>BI/Analytics - Data refresh solution replace use Personal Gateway</t>
         </is>
       </c>
+      <c r="P69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5074,6 +5171,7 @@
           <t>BI Team - Integration hourly TSA throughput data enterprise data warehouse via Teams</t>
         </is>
       </c>
+      <c r="P70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5141,6 +5239,7 @@
           <t>update POT usage report powerbi detail info</t>
         </is>
       </c>
+      <c r="P71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5208,6 +5307,7 @@
           <t>Add another data field Power BI dashboard snow metrics Maintenance</t>
         </is>
       </c>
+      <c r="P72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5275,6 +5375,7 @@
           <t>Additional measures/changes FIDS FlightDetails model</t>
         </is>
       </c>
+      <c r="P73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5342,6 +5443,7 @@
           <t>Flight Operations model refreshing 0800</t>
         </is>
       </c>
+      <c r="P74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5409,6 +5511,7 @@
           <t>New Average Measure airport alarms</t>
         </is>
       </c>
+      <c r="P75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5476,6 +5579,7 @@
           <t>Removal duplicate Device ID Alarm data</t>
         </is>
       </c>
+      <c r="P76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5543,6 +5647,7 @@
           <t>Janitor Scan Data Data Warehouse</t>
         </is>
       </c>
+      <c r="P77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5610,6 +5715,7 @@
           <t>New data model using FIDS/BIDS data</t>
         </is>
       </c>
+      <c r="P78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5677,6 +5783,7 @@
           <t>Snow Dashboard: Improvment reqest materials reporting</t>
         </is>
       </c>
+      <c r="P79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5744,6 +5851,7 @@
           <t>Updates Workday Learning data source</t>
         </is>
       </c>
+      <c r="P80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5811,6 +5919,7 @@
           <t>Crisis Management Source Workflow API Call Proof Concept/Documentation</t>
         </is>
       </c>
+      <c r="P81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5878,6 +5987,7 @@
           <t>Update SSRS Business Directory Report ADA Complaint.</t>
         </is>
       </c>
+      <c r="P82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5945,6 +6055,7 @@
           <t>Procurement Opportunities Flydenver API Gateway</t>
         </is>
       </c>
+      <c r="P83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6012,6 +6123,7 @@
           <t>Updates Workday data</t>
         </is>
       </c>
+      <c r="P84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6079,6 +6191,7 @@
           <t>Embed Commerce hub Power BI report intranet flydenver.com</t>
         </is>
       </c>
+      <c r="P85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6146,6 +6259,7 @@
           <t>Self Bagdrop Dashboard Enhancement</t>
         </is>
       </c>
+      <c r="P86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6213,6 +6327,7 @@
           <t>Create platform people counter report</t>
         </is>
       </c>
+      <c r="P87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6280,6 +6395,7 @@
           <t>Create new Reporting aggregated Security Wait Times</t>
         </is>
       </c>
+      <c r="P88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6347,6 +6463,7 @@
           <t>Updates Passenger Cargo Analysis Report.</t>
         </is>
       </c>
+      <c r="P89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6414,6 +6531,7 @@
           <t>Prep TSA throughput file Power BI report.</t>
         </is>
       </c>
+      <c r="P90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6481,6 +6599,7 @@
           <t>Passenger Capacity Analysis.</t>
         </is>
       </c>
+      <c r="P91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6548,6 +6667,9 @@
           <t>Products data cleanup</t>
         </is>
       </c>
+      <c r="P92" s="2" t="n">
+        <v>45615.3841370088</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6615,6 +6737,9 @@
           <t>Alink data Power BI</t>
         </is>
       </c>
+      <c r="P93" s="2" t="n">
+        <v>45617.3841370088</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6682,6 +6807,9 @@
           <t>Load Screening data Q3 data</t>
         </is>
       </c>
+      <c r="P94" s="2" t="n">
+        <v>45625.3841370088</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6749,6 +6877,9 @@
           <t>Connectors Migration</t>
         </is>
       </c>
+      <c r="P95" s="2" t="n">
+        <v>45621.3841370088</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6816,6 +6947,7 @@
           <t>Upgrade latest version - Connector 1</t>
         </is>
       </c>
+      <c r="P96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6883,6 +7015,7 @@
           <t>MS Synapse POC</t>
         </is>
       </c>
+      <c r="P97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6950,6 +7083,7 @@
           <t>Follow tasks MS assessment clinic</t>
         </is>
       </c>
+      <c r="P98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7017,6 +7151,7 @@
           <t>Budget form BI</t>
         </is>
       </c>
+      <c r="P99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7084,6 +7219,9 @@
           <t>Add field Workday Employee Extract file Database</t>
         </is>
       </c>
+      <c r="P100" s="2" t="n">
+        <v>45615.3841370088</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7151,6 +7289,7 @@
           <t>AskIT/ServiceNow fields imported Data Warehouse.</t>
         </is>
       </c>
+      <c r="P101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7218,6 +7357,7 @@
           <t>ADA Monthly Service Reports Automation</t>
         </is>
       </c>
+      <c r="P102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7285,6 +7425,7 @@
           <t>Maintenance Source rehosting testing</t>
         </is>
       </c>
+      <c r="P103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7352,6 +7493,7 @@
           <t>Pull Future Flight Schedules - Data Data warehouse reporting.</t>
         </is>
       </c>
+      <c r="P104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7419,6 +7561,7 @@
           <t>Updates RSJ dashboard</t>
         </is>
       </c>
+      <c r="P105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7486,6 +7629,7 @@
           <t>Updates Airline Stats</t>
         </is>
       </c>
+      <c r="P106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7553,6 +7697,7 @@
           <t>Updates Airline Dashboard</t>
         </is>
       </c>
+      <c r="P107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7620,6 +7765,9 @@
           <t>Add Search Fuel form process</t>
         </is>
       </c>
+      <c r="P108" s="2" t="n">
+        <v>45626.3841370088</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7687,6 +7835,7 @@
           <t>Light Duty Truck PM Report</t>
         </is>
       </c>
+      <c r="P109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7754,6 +7903,7 @@
           <t>Create Monthly snapshot MP analytics report (Power BI)</t>
         </is>
       </c>
+      <c r="P110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7821,6 +7971,7 @@
           <t>Power BI dashboard Network devices age</t>
         </is>
       </c>
+      <c r="P111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7888,6 +8039,7 @@
           <t>Materials Management Fleet Maintenance need assistance making power BI rep</t>
         </is>
       </c>
+      <c r="P112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7955,6 +8107,7 @@
           <t>Power BI Help Request (TASK0182200)</t>
         </is>
       </c>
+      <c r="P113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8022,6 +8175,7 @@
           <t>Po PR information table info Maintenance Source power BI</t>
         </is>
       </c>
+      <c r="P114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8089,6 +8243,9 @@
           <t>DEN Commercial Dashboard 2.0</t>
         </is>
       </c>
+      <c r="P115" s="2" t="n">
+        <v>45624.3841370088</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8156,6 +8313,7 @@
           <t>Expanding data passed us People Counters via API</t>
         </is>
       </c>
+      <c r="P116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8223,6 +8381,7 @@
           <t>Pull data vendor data warehouse enable regular reporting Parking Lot Capacity</t>
         </is>
       </c>
+      <c r="P117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8290,6 +8449,7 @@
           <t>need help creating DPD Shifts (Details) CAD Dataset</t>
         </is>
       </c>
+      <c r="P118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8357,6 +8517,9 @@
           <t>OPs Security Screening Occupancy Reporting</t>
         </is>
       </c>
+      <c r="P119" s="2" t="n">
+        <v>45613.3841370088</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8424,6 +8587,7 @@
           <t>Comms Center Dashboard</t>
         </is>
       </c>
+      <c r="P120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8491,6 +8655,9 @@
           <t>Update Maintenance database</t>
         </is>
       </c>
+      <c r="P121" s="2" t="n">
+        <v>45615.3841370088</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8558,6 +8725,9 @@
           <t>Connect external weather dataset Snow Dashboards probably via API help team better tell story runway downtime.</t>
         </is>
       </c>
+      <c r="P122" s="2" t="n">
+        <v>45625.3841370088</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8624,6 +8794,9 @@
         <is>
           <t>Non-Production Network Production/Inventory Values Cost Estimation sheets need adjusting/correcting (use attached docs)</t>
         </is>
+      </c>
+      <c r="P123" s="2" t="n">
+        <v>45618.3841370088</v>
       </c>
     </row>
   </sheetData>
